--- a/config_hlw/fish_3d_server.xlsx
+++ b/config_hlw/fish_3d_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
